--- a/data/evaluation/evaluation_Center_Summer_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Kohlrabi.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5096.448979591836</v>
+        <v>4913.183673469387</v>
       </c>
       <c r="C3" t="n">
-        <v>35525643.34766764</v>
+        <v>35246816.08819242</v>
       </c>
       <c r="D3" t="n">
-        <v>5960.339197366845</v>
+        <v>5936.902903719449</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.052428750216337</v>
+        <v>-1.036320017769454</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3690.161254377625</v>
+        <v>3749.444642504787</v>
       </c>
       <c r="C4" t="n">
-        <v>18229745.89943301</v>
+        <v>19545781.33857584</v>
       </c>
       <c r="D4" t="n">
-        <v>4269.630651406865</v>
+        <v>4421.06111002504</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05319006406089799</v>
+        <v>-0.129221592756005</v>
       </c>
     </row>
     <row r="5">
